--- a/Analysed_data.xlsx
+++ b/Analysed_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="160">
   <si>
     <t xml:space="preserve">PubMed ID</t>
   </si>
@@ -214,9 +214,6 @@
     <t xml:space="preserve">rs1387926363</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">rs587776825 </t>
   </si>
   <si>
@@ -419,9 +416,6 @@
   </si>
   <si>
     <t xml:space="preserve">rs1469427343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1.0000</t>
   </si>
   <si>
     <t xml:space="preserve">rs1057520779</t>
@@ -631,8 +625,8 @@
   </sheetPr>
   <dimension ref="A1:F348"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C282" activeCellId="0" sqref="C282"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A218" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E239" activeCellId="0" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2160,8 +2154,8 @@
       <c r="E76" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>64</v>
+      <c r="F76" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,7 +2169,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>0.99957</v>
@@ -2195,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>1</v>
@@ -2215,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>0.96365</v>
@@ -2235,7 +2229,7 @@
         <v>28</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>1</v>
@@ -2275,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>1</v>
@@ -2295,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>0</v>
@@ -2315,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>0.745</v>
@@ -2375,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>0.994</v>
@@ -2395,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>1</v>
@@ -2435,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>0.4952</v>
@@ -2455,7 +2449,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>0.9994</v>
@@ -2469,7 +2463,7 @@
         <v>178</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
@@ -2489,13 +2483,13 @@
         <v>179</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>1</v>
@@ -2509,13 +2503,13 @@
         <v>180</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>1</v>
@@ -2529,13 +2523,13 @@
         <v>181</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>0.99936</v>
@@ -2595,13 +2589,13 @@
         <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>64</v>
+      <c r="F98" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>1</v>
@@ -2655,7 +2649,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>0.99987</v>
@@ -2675,7 +2669,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>1</v>
@@ -2695,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>1</v>
@@ -2715,7 +2709,7 @@
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>0.999829</v>
@@ -2735,7 +2729,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>1</v>
@@ -2755,7 +2749,7 @@
         <v>28</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>0.986</v>
@@ -2795,7 +2789,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>1</v>
@@ -2835,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>0.452</v>
@@ -2895,7 +2889,7 @@
         <v>28</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>0</v>
@@ -2915,7 +2909,7 @@
         <v>28</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>1</v>
@@ -2995,7 +2989,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>1</v>
@@ -3075,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>0.9999</v>
@@ -3115,7 +3109,7 @@
         <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>0.9981</v>
@@ -3135,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>0.75348</v>
@@ -3155,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>0.75348</v>
@@ -3169,7 +3163,7 @@
         <v>228</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3189,7 +3183,7 @@
         <v>229</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3235,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>0.99994</v>
@@ -3335,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>1</v>
@@ -3355,7 +3349,7 @@
         <v>28</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E136" s="2" t="n">
         <v>0.876</v>
@@ -3389,13 +3383,13 @@
         <v>260</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>0.5011</v>
@@ -3475,7 +3469,7 @@
         <v>28</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>1</v>
@@ -3515,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E144" s="2" t="n">
         <v>0.4967</v>
@@ -3535,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>0.976523</v>
@@ -3555,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E146" s="2" t="n">
         <v>0.354374</v>
@@ -3615,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>0.93229</v>
@@ -3629,13 +3623,13 @@
         <v>294</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E150" s="2" t="n">
         <v>0.45</v>
@@ -3655,7 +3649,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E151" s="2" t="n">
         <v>0.4044</v>
@@ -3715,7 +3709,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E154" s="2" t="n">
         <v>0.5061</v>
@@ -3735,7 +3729,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>0.5</v>
@@ -3815,7 +3809,7 @@
         <v>11</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>0.354374</v>
@@ -3895,7 +3889,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>0.99983</v>
@@ -3995,7 +3989,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E168" s="2" t="n">
         <v>1</v>
@@ -4095,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E173" s="2" t="n">
         <v>0.99924</v>
@@ -4295,7 +4289,7 @@
         <v>11</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E183" s="2" t="n">
         <v>0.99924</v>
@@ -4375,7 +4369,7 @@
         <v>28</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>1</v>
@@ -4395,7 +4389,7 @@
         <v>28</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>0.6117</v>
@@ -4495,7 +4489,7 @@
         <v>28</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E193" s="2" t="n">
         <v>0.803</v>
@@ -4512,10 +4506,10 @@
         <v>21518407</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E194" s="2" t="n">
         <v>0.9999</v>
@@ -4532,7 +4526,7 @@
         <v>21518407</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>39</v>
@@ -4615,7 +4609,7 @@
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E199" s="2" t="n">
         <v>1</v>
@@ -4655,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E201" s="2" t="n">
         <v>1</v>
@@ -4675,7 +4669,7 @@
         <v>11</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E202" s="2" t="n">
         <v>0.99924</v>
@@ -4715,7 +4709,7 @@
         <v>28</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E204" s="2" t="n">
         <v>1</v>
@@ -4735,7 +4729,7 @@
         <v>28</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E205" s="2" t="n">
         <v>1</v>
@@ -4775,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E207" s="2" t="n">
         <v>1</v>
@@ -4815,7 +4809,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E209" s="2" t="n">
         <v>0.99998</v>
@@ -4915,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E214" s="2" t="n">
         <v>0.99999</v>
@@ -4955,7 +4949,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E216" s="2" t="n">
         <v>0.99936</v>
@@ -4975,7 +4969,7 @@
         <v>11</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E217" s="2" t="n">
         <v>0.99992</v>
@@ -4995,7 +4989,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E218" s="2" t="n">
         <v>0.999647</v>
@@ -5015,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E219" s="2" t="n">
         <v>0.99924</v>
@@ -5029,13 +5023,13 @@
         <v>446</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E220" s="2" t="n">
         <v>0.999971</v>
@@ -5055,7 +5049,7 @@
         <v>28</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E221" s="2" t="n">
         <v>0.9918</v>
@@ -5069,13 +5063,13 @@
         <v>448</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E222" s="2" t="n">
         <v>1</v>
@@ -5095,7 +5089,7 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E223" s="2" t="n">
         <v>1</v>
@@ -5115,7 +5109,7 @@
         <v>28</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E224" s="2" t="n">
         <v>1</v>
@@ -5135,7 +5129,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E225" s="2" t="n">
         <v>0.99995</v>
@@ -5155,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E226" s="2" t="n">
         <v>0.90143</v>
@@ -5175,7 +5169,7 @@
         <v>28</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E227" s="2" t="n">
         <v>0.4147</v>
@@ -5195,7 +5189,7 @@
         <v>28</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E228" s="2" t="n">
         <v>0.5988</v>
@@ -5215,7 +5209,7 @@
         <v>28</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E229" s="2" t="n">
         <v>0.6311</v>
@@ -5255,7 +5249,7 @@
         <v>11</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E231" s="2" t="n">
         <v>0.99996</v>
@@ -5315,7 +5309,7 @@
         <v>11</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E234" s="2" t="n">
         <v>1</v>
@@ -5355,7 +5349,7 @@
         <v>11</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E236" s="2" t="n">
         <v>1</v>
@@ -5395,10 +5389,10 @@
         <v>11</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F238" s="2" t="n">
         <v>0</v>
@@ -5415,7 +5409,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E239" s="2" t="n">
         <v>0.99994</v>
@@ -5475,7 +5469,7 @@
         <v>11</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E242" s="2" t="n">
         <v>0.9998</v>
@@ -5495,7 +5489,7 @@
         <v>11</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E243" s="2" t="n">
         <v>1</v>
@@ -5555,7 +5549,7 @@
         <v>11</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E246" s="2" t="n">
         <v>1</v>
@@ -5575,7 +5569,7 @@
         <v>11</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E247" s="2" t="n">
         <v>0.9999</v>
@@ -5595,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E248" s="2" t="n">
         <v>1</v>
@@ -5655,7 +5649,7 @@
         <v>11</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E251" s="2" t="n">
         <v>1</v>
@@ -5729,13 +5723,13 @@
         <v>523</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E255" s="2" t="n">
         <v>0.37213</v>
@@ -5755,7 +5749,7 @@
         <v>28</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E256" s="2" t="n">
         <v>0</v>
@@ -5795,7 +5789,7 @@
         <v>28</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E258" s="2" t="n">
         <v>0.343</v>
@@ -5815,7 +5809,7 @@
         <v>28</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E259" s="2" t="n">
         <v>0.7638</v>
@@ -5835,7 +5829,7 @@
         <v>28</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E260" s="2" t="n">
         <v>0.954</v>
@@ -5875,7 +5869,7 @@
         <v>28</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E262" s="2" t="n">
         <v>0.6311</v>
@@ -5895,7 +5889,7 @@
         <v>28</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E263" s="2" t="n">
         <v>0.625</v>
@@ -5915,7 +5909,7 @@
         <v>28</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E264" s="2" t="n">
         <v>0.5988</v>
@@ -5935,7 +5929,7 @@
         <v>11</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E265" s="2" t="n">
         <v>0.52311</v>
@@ -6035,7 +6029,7 @@
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E270" s="2" t="n">
         <v>1</v>
@@ -6095,7 +6089,7 @@
         <v>28</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E273" s="2" t="n">
         <v>1</v>
@@ -6115,7 +6109,7 @@
         <v>28</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E274" s="2" t="n">
         <v>1</v>
@@ -6135,7 +6129,7 @@
         <v>11</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E275" s="2" t="n">
         <v>0.92193</v>
@@ -6155,7 +6149,7 @@
         <v>11</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E276" s="2" t="n">
         <v>0.52311</v>
@@ -6195,7 +6189,7 @@
         <v>11</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E278" s="2" t="n">
         <v>0.67467</v>
@@ -6215,7 +6209,7 @@
         <v>11</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E279" s="2" t="n">
         <v>0.67109</v>
@@ -6235,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E280" s="2" t="n">
         <v>0.78915</v>
@@ -6255,7 +6249,7 @@
         <v>11</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E281" s="2" t="n">
         <v>0.74319</v>
@@ -6355,7 +6349,7 @@
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E286" s="2" t="n">
         <v>1</v>
@@ -6375,7 +6369,7 @@
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E287" s="2" t="n">
         <v>0.99998</v>
@@ -6395,7 +6389,7 @@
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E288" s="2" t="n">
         <v>1</v>
@@ -6435,7 +6429,7 @@
         <v>11</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E290" s="2" t="n">
         <v>0.99924</v>
@@ -6455,7 +6449,7 @@
         <v>28</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E291" s="2" t="n">
         <v>1</v>
@@ -6489,7 +6483,7 @@
         <v>779</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
@@ -6515,7 +6509,7 @@
         <v>11</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E294" s="2" t="n">
         <v>1</v>
@@ -6575,7 +6569,7 @@
         <v>28</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E297" s="2" t="n">
         <v>0.99936</v>
@@ -6615,7 +6609,7 @@
         <v>28</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E299" s="2" t="n">
         <v>1</v>
@@ -6635,7 +6629,7 @@
         <v>28</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E300" s="2" t="n">
         <v>0.00014</v>
@@ -6915,7 +6909,7 @@
         <v>11</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E314" s="2" t="n">
         <v>0.99996</v>
@@ -6955,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E316" s="2" t="n">
         <v>1</v>
@@ -6995,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E318" s="2" t="n">
         <v>1</v>
@@ -7015,7 +7009,7 @@
         <v>11</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E319" s="2" t="n">
         <v>0.99993</v>
@@ -7115,7 +7109,7 @@
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E324" s="2" t="n">
         <v>1</v>
@@ -7155,7 +7149,7 @@
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E326" s="2" t="n">
         <v>1</v>
@@ -7215,7 +7209,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E329" s="2" t="n">
         <v>1</v>
@@ -7295,7 +7289,7 @@
         <v>28</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E333" s="2" t="n">
         <v>1</v>
@@ -7329,7 +7323,7 @@
         <v>873</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
@@ -7455,7 +7449,7 @@
         <v>5</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E341" s="2" t="n">
         <v>0.0394</v>
@@ -7475,7 +7469,7 @@
         <v>5</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E342" s="2" t="n">
         <v>1</v>
@@ -7515,7 +7509,7 @@
         <v>11</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E344" s="2" t="n">
         <v>1</v>
@@ -7535,7 +7529,7 @@
         <v>11</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E345" s="2" t="n">
         <v>1</v>
@@ -7555,7 +7549,7 @@
         <v>11</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E346" s="2" t="n">
         <v>0.999493</v>
